--- a/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/0을찾아없음으로교체(준비).xlsx
+++ b/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/0을찾아없음으로교체(준비).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_출판사\길벗\직장인엑셀_2018\부록CD\Chapter01\Section02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song-yonghun/Study/Data_analysis/직장인을 위한 실무 엑셀/Chapter01/Section02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28164E16-4E66-44C2-BB60-3F24BD19E511}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CD620E-2F4F-D24B-A8E0-8879B463FFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15276" windowHeight="8076" xr2:uid="{B5A30621-28FD-4E43-891D-67D4DA7A197D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B5A30621-28FD-4E43-891D-67D4DA7A197D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="41">
   <si>
     <t>영업2팀 1분기 매출 실적 분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,13 +159,16 @@
   </si>
   <si>
     <t>오혜령</t>
+  </si>
+  <si>
+    <t>없음</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,22 +278,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,20 +614,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED87618-CCFC-40FE-9867-A6F113EA9E36}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
     <col min="2" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="10.5" customHeight="1"/>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -625,7 +639,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -651,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="17.25" customHeight="1">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -678,7 +692,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="17.25" customHeight="1">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -694,18 +708,18 @@
       <c r="E6" s="5">
         <v>88</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
+      <c r="F6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="5">
         <v>90</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="0"/>
-        <v>59.333333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" customHeight="1">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -732,7 +746,7 @@
         <v>80.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="17.25" customHeight="1">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -759,7 +773,7 @@
         <v>74.666666666666671</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -772,21 +786,21 @@
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -813,7 +827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="17.25" customHeight="1">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -840,7 +854,7 @@
         <v>82.333333333333329</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -867,7 +881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="17.25" customHeight="1">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -886,15 +900,15 @@
       <c r="F13" s="5">
         <v>94</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
+      <c r="G13" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="0"/>
-        <v>59.666666666666664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" customHeight="1">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -921,7 +935,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="17.25" customHeight="1">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -948,7 +962,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="17.25" customHeight="1">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -964,18 +978,18 @@
       <c r="E16" s="5">
         <v>83</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
+      <c r="F16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G16" s="5">
         <v>85</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" customHeight="1">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1002,7 +1016,7 @@
         <v>75.666666666666671</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="17.25" customHeight="1">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>69.666666666666671</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="17.25" customHeight="1">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1042,21 +1056,21 @@
       <c r="D19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1083,7 +1097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="17.25" customHeight="1">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1099,18 +1113,18 @@
       <c r="E21" s="5">
         <v>73</v>
       </c>
-      <c r="F21" s="5">
-        <v>0</v>
+      <c r="F21" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="5">
         <v>82</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1137,7 +1151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="17.25" customHeight="1">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1156,15 +1170,15 @@
       <c r="F23" s="5">
         <v>84</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="17.25" customHeight="1">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1207,18 +1221,18 @@
       <c r="E25" s="5">
         <v>83</v>
       </c>
-      <c r="F25" s="5">
-        <v>0</v>
+      <c r="F25" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="G25" s="5">
         <v>92</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1">
       <c r="A26" s="3">
         <v>22</v>
       </c>
